--- a/我的创作/基金/202112.xlsx
+++ b/我的创作/基金/202112.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -48,13 +49,13 @@
     <t>电力设备</t>
   </si>
   <si>
-    <t>半导体</t>
-  </si>
-  <si>
     <t>化学制品</t>
   </si>
   <si>
-    <t>通用设备</t>
+    <t>半导体及元件</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
   </si>
   <si>
     <t>国防军工</t>
@@ -65,6 +66,15 @@
   </si>
   <si>
     <t>销售费用</t>
+  </si>
+  <si>
+    <t>001410</t>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票</t>
+  </si>
+  <si>
+    <t>领域</t>
   </si>
 </sst>
 </file>
@@ -73,9 +83,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +110,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -107,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -115,48 +141,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,63 +179,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,181 +255,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,32 +452,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,9 +502,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,142 +545,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1009,20 +1022,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.2678571428571" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.0982142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3482142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.1696428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.3392857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.9821428571429" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="11.4553571428571" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="10.5625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.14285714285714" style="1"/>
     <col min="13" max="13" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1074,13 +1090,19 @@
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1098,4 +1120,26 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/我的创作/基金/202112.xlsx
+++ b/我的创作/基金/202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>基金代码</t>
   </si>
@@ -23,7 +23,9 @@
     <t>基金简称</t>
   </si>
   <si>
-    <t>基金资产</t>
+    <t>基金资产
+(单位：亿)
+(优选10~30亿，次选5~40亿)</t>
   </si>
   <si>
     <t>投资标的的市值类别
@@ -37,7 +39,7 @@
     <t>行业权重</t>
   </si>
   <si>
-    <t>持股数量</t>
+    <t>前十大持股及其占比</t>
   </si>
   <si>
     <t>换手率</t>
@@ -46,19 +48,43 @@
     <t>成本</t>
   </si>
   <si>
-    <t>电力设备</t>
-  </si>
-  <si>
-    <t>化学制品</t>
-  </si>
-  <si>
-    <t>半导体及元件</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>国防军工</t>
+    <t>制造业</t>
+  </si>
+  <si>
+    <t>采矿业</t>
+  </si>
+  <si>
+    <t>批发和
+零售业</t>
+  </si>
+  <si>
+    <t>信息传输、软件
+和信息技术服务业</t>
+  </si>
+  <si>
+    <t>文化体育娱乐业</t>
+  </si>
+  <si>
+    <t>交通运输仓储和邮政业</t>
+  </si>
+  <si>
+    <t>电力、热力、燃气及水生产和供应</t>
+  </si>
+  <si>
+    <t>水利、环境
+和公共设施管理业</t>
+  </si>
+  <si>
+    <t>科学研究和技术服务</t>
+  </si>
+  <si>
+    <t>建筑业</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>金融业</t>
   </si>
   <si>
     <t>费用比率
@@ -68,13 +94,247 @@
     <t>销售费用</t>
   </si>
   <si>
-    <t>001410</t>
-  </si>
-  <si>
-    <t>信达澳银新能源产业股票</t>
+    <t>001643</t>
+  </si>
+  <si>
+    <t>汇丰晋信智造先锋股票A</t>
+  </si>
+  <si>
+    <t>中盘</t>
+  </si>
+  <si>
+    <t>成长</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>广信股份</t>
+  </si>
+  <si>
+    <t>杭可科技</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>嘉元科技</t>
+  </si>
+  <si>
+    <t>艾可蓝</t>
+  </si>
+  <si>
+    <t>斯迪克</t>
+  </si>
+  <si>
+    <t>克来机电</t>
+  </si>
+  <si>
+    <t>航亚科技</t>
+  </si>
+  <si>
+    <t>前端收费</t>
+  </si>
+  <si>
+    <t>001644</t>
+  </si>
+  <si>
+    <t>汇丰晋信智造先锋股票C</t>
+  </si>
+  <si>
+    <t>000729</t>
+  </si>
+  <si>
+    <t>建信中小盘先锋股票A</t>
+  </si>
+  <si>
+    <t>迈为股份</t>
+  </si>
+  <si>
+    <t>中国石油</t>
+  </si>
+  <si>
+    <t>兖州煤业</t>
+  </si>
+  <si>
+    <t>振江股份</t>
+  </si>
+  <si>
+    <t>意华股份</t>
+  </si>
+  <si>
+    <t>力星股份</t>
+  </si>
+  <si>
+    <t>伊戈尔</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>德方纳米</t>
+  </si>
+  <si>
+    <t>芒果超媒</t>
+  </si>
+  <si>
+    <t>001877</t>
+  </si>
+  <si>
+    <t>宝盈国家安全沪港深股票A</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>铂科新材</t>
+  </si>
+  <si>
+    <t>欧陆通</t>
+  </si>
+  <si>
+    <t>东方盛虹</t>
+  </si>
+  <si>
+    <t>天正电气</t>
+  </si>
+  <si>
+    <t>中简科技</t>
+  </si>
+  <si>
+    <t>建设机械</t>
+  </si>
+  <si>
+    <t>和而泰</t>
+  </si>
+  <si>
+    <t>柯力传感</t>
+  </si>
+  <si>
+    <t>华荣股份</t>
+  </si>
+  <si>
+    <t>002903</t>
+  </si>
+  <si>
+    <t>广发中证500ETF联接（LOF）C</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>三峡能源</t>
+  </si>
+  <si>
+    <t>中国电信</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>斯达半导</t>
+  </si>
+  <si>
+    <t>吉比特</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>国轩高科</t>
+  </si>
+  <si>
+    <t>中国宝安</t>
+  </si>
+  <si>
+    <t>欣旺达</t>
+  </si>
+  <si>
+    <t>001557</t>
+  </si>
+  <si>
+    <t>天弘中证500指数增强C</t>
   </si>
   <si>
     <t>领域</t>
+  </si>
+  <si>
+    <t>化学制品</t>
+  </si>
+  <si>
+    <t>半导体及元件</t>
+  </si>
+  <si>
+    <t>电力设备</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>赛特新材(1.24)</t>
+  </si>
+  <si>
+    <t>思瑞浦(3.9)</t>
+  </si>
+  <si>
+    <t>宏力达(3.28)</t>
+  </si>
+  <si>
+    <t>奕瑞科技(4.49)</t>
+  </si>
+  <si>
+    <t>西部超导(1.22)</t>
+  </si>
+  <si>
+    <t>凯赛生物(1.18)</t>
+  </si>
+  <si>
+    <t>南亚新材(1.37)</t>
+  </si>
+  <si>
+    <t>奥特维(2.31)</t>
+  </si>
+  <si>
+    <t>诺唯赞(1.53)</t>
+  </si>
+  <si>
+    <t>国光电气(1.83)</t>
+  </si>
+  <si>
+    <t>华恒生物(1.06)</t>
+  </si>
+  <si>
+    <t>晶晨股份(1.22)</t>
+  </si>
+  <si>
+    <t>帝尔激光(2.66)</t>
+  </si>
+  <si>
+    <t>光威复材(1.19)</t>
+  </si>
+  <si>
+    <t>润丰股份(2.02)</t>
+  </si>
+  <si>
+    <t>神工股份(1.06)</t>
+  </si>
+  <si>
+    <t>利安隆(1.46)</t>
+  </si>
+  <si>
+    <t>四会富仕(1.38)</t>
+  </si>
+  <si>
+    <t>扬杰科技(1.11)</t>
   </si>
 </sst>
 </file>
@@ -87,13 +347,20 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Microsoft Yahei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -249,18 +516,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +701,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,162 +853,225 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,100 +1393,1289 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="13.0982142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3482142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1696428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3392857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.4553571428571" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="10.5625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9.14285714285714" style="1"/>
-    <col min="13" max="13" width="14.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="13.0982142857143" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.9642857142857" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.1696428571429" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.3392857142857" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.91964285714286" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.16964285714286" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.8392857142857" style="7" customWidth="1"/>
+    <col min="10" max="12" width="15.9285714285714" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18.7857142857143" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.5714285714286" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.45535714285714" style="7" customWidth="1"/>
+    <col min="16" max="16" width="7.96428571428571" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.95535714285714" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.14285714285714" style="6"/>
+    <col min="19" max="19" width="10.1071428571429" style="6" customWidth="1"/>
+    <col min="20" max="29" width="9.14285714285714" style="6"/>
+    <col min="30" max="30" width="14.4285714285714" customWidth="1"/>
+    <col min="31" max="31" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" ht="36" spans="4:14">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+    </row>
+    <row r="2" ht="53" spans="1:34">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="L2" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="N2" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="O2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+    </row>
+    <row r="3" ht="18" spans="1:34">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23.07</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.8216</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>0.0274</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15">
+        <v>0.0795</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>0.0115</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0.0069</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="15">
+        <v>0.0806</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0.0598</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.0512</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0.0445</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0.0399</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0.0397</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0.0382</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0.0371</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0.0351</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0.0329</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="21">
+        <v>0.015</v>
+      </c>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+    </row>
+    <row r="5" ht="18" spans="1:34">
+      <c r="A5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13.51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.8216</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>0.0274</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15">
+        <v>0.0795</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
+        <v>0.0115</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.0069</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="15">
+        <v>0.0806</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0.0598</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.0512</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.0445</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0.0399</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0.0397</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0.0382</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0.0371</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0.0351</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0.0329</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11">
+        <v>9.47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.6028</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.1299</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.0189</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.0309</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.0344</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.0294</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.0257</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <v>0.0033</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.0511</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="T8" s="3">
+        <v>6.67</v>
+      </c>
+      <c r="U8" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4.82</v>
+      </c>
+      <c r="W8" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="X8" s="3">
+        <v>4.02</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3.45</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>3.44</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="21">
+        <v>0.015</v>
+      </c>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="11">
+        <v>8.76</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.8574</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
+        <v>0.0002</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
+        <v>0.0321</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.0002</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="20">
+        <v>0.043</v>
+      </c>
+      <c r="T10" s="20">
+        <v>0.042</v>
+      </c>
+      <c r="U10" s="20">
+        <v>0.0415</v>
+      </c>
+      <c r="V10" s="20">
+        <v>0.0397</v>
+      </c>
+      <c r="W10" s="20">
+        <v>0.0395</v>
+      </c>
+      <c r="X10" s="20">
+        <v>0.0389</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>0.0384</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>0.0361</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>0.0358</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>0.0326</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="21">
+        <v>0.015</v>
+      </c>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10.57</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="15">
+        <v>0.0025</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0.0006</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0.0002</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0.0002</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0.0002</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0.0001</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0.0001</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0.0001</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0.0001</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0.0001</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3">
+        <v>23.41</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="60">
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="S1:AB1"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AC3:AC4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1125,20 +2685,208 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7678571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3035714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5982142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
